--- a/va_facility_data_2025-02-20/Austin VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Austin%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Austin VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Austin%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2b288c2882714ea6ae9dad9861c3436b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R57ec0c74c8c84535827ee85535525503"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R34a8db34ec024fa399ea5b1188770e2b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R238d65733a0941e6ad3c8995db327f28"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfe08212c6bed424cbf307a07fce66625"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R42e4f99219fc483c9d328cb695799e63"/>
   </x:sheets>
 </x:workbook>
 </file>
